--- a/画面設計総編集/発注リスト.xlsx
+++ b/画面設計総編集/発注リスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8099\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8099\Desktop\system-devel\画面設計総編集\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1098,40 +1098,70 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1152,24 +1182,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,15 +1200,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,43 +1209,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1269,20 +1269,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8467</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>499534</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>29961</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68354</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1301,8 +1301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="237067" y="1363134"/>
-          <a:ext cx="7052734" cy="3772227"/>
+          <a:off x="220133" y="1566334"/>
+          <a:ext cx="7163421" cy="3810330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1606,8 +1606,8 @@
   </sheetPr>
   <dimension ref="B1:U7621"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1635,28 +1635,28 @@
   <sheetData>
     <row r="1" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="72" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="78" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="84" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1665,22 +1665,22 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="87" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="90"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1689,30 +1689,30 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="94" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="84" t="s">
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="72"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1721,22 +1721,22 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="2:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="75"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="102"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1752,15 +1752,15 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="93"/>
       <c r="R6" s="3"/>
       <c r="S6" s="4"/>
       <c r="T6" s="3"/>
@@ -1794,17 +1794,17 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="59" t="s">
+      <c r="J8" s="95"/>
+      <c r="K8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="97"/>
       <c r="R8" s="3"/>
       <c r="S8" s="4"/>
       <c r="T8" s="3"/>
@@ -1838,17 +1838,17 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="59" t="s">
+      <c r="J10" s="95"/>
+      <c r="K10" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="97"/>
       <c r="R10" s="3"/>
       <c r="S10" s="4"/>
       <c r="T10" s="3"/>
@@ -1864,11 +1864,11 @@
       <c r="H11" s="9"/>
       <c r="I11" s="50"/>
       <c r="J11" s="51"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="97"/>
       <c r="R11" s="3"/>
       <c r="S11" s="4"/>
       <c r="T11" s="3"/>
@@ -1882,17 +1882,17 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="59" t="s">
+      <c r="J12" s="95"/>
+      <c r="K12" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="97"/>
       <c r="R12" s="3"/>
       <c r="S12" s="4"/>
       <c r="T12" s="3"/>
@@ -1908,11 +1908,11 @@
       <c r="H13" s="9"/>
       <c r="I13" s="50"/>
       <c r="J13" s="51"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
       <c r="R13" s="3"/>
       <c r="S13" s="4"/>
       <c r="T13" s="3"/>
@@ -1926,17 +1926,17 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="59" t="s">
+      <c r="J14" s="95"/>
+      <c r="K14" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="97"/>
       <c r="R14" s="3"/>
       <c r="S14" s="4"/>
       <c r="T14" s="3"/>
@@ -1952,11 +1952,11 @@
       <c r="H15" s="9"/>
       <c r="I15" s="50"/>
       <c r="J15" s="51"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="97"/>
       <c r="R15" s="3"/>
       <c r="S15" s="4"/>
       <c r="T15" s="3"/>
@@ -1970,17 +1970,17 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="59">
+      <c r="J16" s="95"/>
+      <c r="K16" s="96">
         <v>9</v>
       </c>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="60"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="97"/>
       <c r="R16" s="3"/>
       <c r="S16" s="4"/>
       <c r="T16" s="3"/>
@@ -1996,11 +1996,11 @@
       <c r="H17" s="9"/>
       <c r="I17" s="50"/>
       <c r="J17" s="51"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="60"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="97"/>
       <c r="R17" s="3"/>
       <c r="S17" s="4"/>
       <c r="T17" s="3"/>
@@ -2014,17 +2014,17 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="59" t="s">
+      <c r="J18" s="95"/>
+      <c r="K18" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="60"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="97"/>
       <c r="R18" s="3"/>
       <c r="S18" s="4"/>
       <c r="T18" s="3"/>
@@ -2058,15 +2058,15 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="100"/>
       <c r="R20" s="3"/>
       <c r="S20" s="4"/>
       <c r="T20" s="3"/>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="61" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="58"/>
+      <c r="C62" s="102"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -10749,28 +10749,6 @@
     <row r="7621" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="K15:O15"/>
@@ -10779,6 +10757,28 @@
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
